--- a/SpringSummerSeverity/data/BurnData.xlsx
+++ b/SpringSummerSeverity/data/BurnData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProjects\GreatPlainsFire\SpringSummerSeverity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA5CAD-191C-4496-B518-0EBB5FF0ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954DF6E-B497-4C8D-8DF9-5D37AE10CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2565" windowWidth="9150" windowHeight="17655" xr2:uid="{6AC5A367-9780-486A-9A0B-845A911A1433}"/>
+    <workbookView xWindow="20835" yWindow="690" windowWidth="17295" windowHeight="20580" activeTab="1" xr2:uid="{6AC5A367-9780-486A-9A0B-845A911A1433}"/>
   </bookViews>
   <sheets>
     <sheet name="BurnDays" sheetId="1" r:id="rId1"/>
+    <sheet name="SentinelDays" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>date</t>
   </si>
@@ -138,6 +139,15 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>&lt; May 9</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -194,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42EAEAC-E7B5-4741-A73A-DD02FB2FFD63}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,23 +877,8 @@
       <c r="A20">
         <v>2019</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,7 +886,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -900,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -917,13 +912,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,16 +938,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,16 +949,22 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,16 +978,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,31 +995,54 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2020</v>
       </c>
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1032,4 +1050,1141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7723F70-2B22-4208-956D-1A7F57E57EF8}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2018</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2018</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2019</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2019</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2020</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2020</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2020</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpringSummerSeverity/data/BurnData.xlsx
+++ b/SpringSummerSeverity/data/BurnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProjects\GreatPlainsFire\SpringSummerSeverity\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devan.mcgranahan\GitHubProjects\GreatPlainsFire\SpringSummerSeverity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954DF6E-B497-4C8D-8DF9-5D37AE10CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC7023-69F3-49B7-8FFE-40B773718997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="690" windowWidth="17295" windowHeight="20580" activeTab="1" xr2:uid="{6AC5A367-9780-486A-9A0B-845A911A1433}"/>
+    <workbookView xWindow="135" yWindow="135" windowWidth="14535" windowHeight="16065" xr2:uid="{6AC5A367-9780-486A-9A0B-845A911A1433}"/>
   </bookViews>
   <sheets>
     <sheet name="BurnDays" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Barker?</t>
   </si>
   <si>
-    <t>Bob?</t>
-  </si>
-  <si>
     <t>May 2</t>
   </si>
   <si>
@@ -141,20 +138,35 @@
     <t>SS</t>
   </si>
   <si>
-    <t>&lt; May 9</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>May 11</t>
+  </si>
+  <si>
+    <t>May 12</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>August 17</t>
+  </si>
+  <si>
+    <t>certainty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +174,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +225,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,553 +550,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42EAEAC-E7B5-4741-A73A-DD02FB2FFD63}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2019</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2019</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2019</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2019</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2020</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1056,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7723F70-2B22-4208-956D-1A7F57E57EF8}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -1067,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
